--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2531.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2531.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.598875623631092</v>
+        <v>2.008085012435913</v>
       </c>
       <c r="B1">
-        <v>3.677023262433647</v>
+        <v>2.093823194503784</v>
       </c>
       <c r="C1">
-        <v>3.085129835747691</v>
+        <v>2.34978723526001</v>
       </c>
       <c r="D1">
-        <v>1.550808053604449</v>
+        <v>3.091463327407837</v>
       </c>
       <c r="E1">
-        <v>1.503713566749059</v>
+        <v>2.505070686340332</v>
       </c>
     </row>
   </sheetData>
